--- a/rp/Excel/Back_背部.xlsx
+++ b/rp/Excel/Back_背部.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -51,10 +51,53 @@
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">光束拖尾</t>
+    <t xml:space="preserve">双层翅膀</t>
   </si>
   <si>
-    <t xml:space="preserve">彩虹拖尾</t>
+    <t xml:space="preserve">0|0|0|0|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翅膀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">六翼翅膀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飞行背包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-6|0|-123|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0|0|90|1|1|1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">小熊背包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">棺材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-132|0|0|90|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -64,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +143,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -146,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +210,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +237,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,9 +364,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>88442</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>334814</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -338,12 +394,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>135851</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>88824</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -365,11 +423,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>452702</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -388,11 +456,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>449687</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -411,11 +489,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>449694</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -434,11 +522,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>375152</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -457,11 +555,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>399002</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -480,11 +588,21 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>131208</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -503,11 +621,21 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>454815</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -526,11 +654,21 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>454822</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -549,11 +687,21 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>454833</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -572,11 +720,21 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>454834</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -595,10 +753,18 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>117847</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>

--- a/rp/Excel/Back_背部.xlsx
+++ b/rp/Excel/Back_背部.xlsx
@@ -1,69 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Int</t>
+    <t>Int</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">String[]</t>
+    <t>String[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe</t>
+    <t>Describe</t>
   </si>
   <si>
-    <t xml:space="preserve">AssetId</t>
+    <t>AssetId</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform</t>
+    <t>Transform</t>
   </si>
   <si>
-    <t xml:space="preserve">SexType</t>
+    <t>SexType</t>
   </si>
   <si>
-    <t xml:space="preserve">0-Common
+    <t>0-Common
 1-Male
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">双层翅膀</t>
+    <t>双层翅膀</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|0|0|90|1|1|1</t>
+    <t>0|0|0|0|0|90|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">翅膀</t>
+    <t>翅膀</t>
   </si>
   <si>
-    <t xml:space="preserve">六翼翅膀</t>
+    <t>六翼翅膀</t>
   </si>
   <si>
-    <t xml:space="preserve">飞行背包</t>
+    <t>精灵翅膀</t>
+  </si>
+  <si>
+    <t>棺材</t>
+  </si>
+  <si>
+    <t>0|0|-132|0|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t>30|0|0|0|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t>30|0|-100|0|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t>30|0|0|0|90|0|1|1|1</t>
+  </si>
+  <si>
+    <t>30|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>飞行背包</t>
   </si>
   <si>
     <r>
@@ -71,178 +99,1212 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-6|0|-123|</t>
+      <t>-6|0|-123|</t>
     </r>
     <r>
       <rPr>
         <sz val="9.8"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">0|0|90|1|1|1</t>
+      <t>0|0|90|1|1|1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">小熊背包</t>
+    <t>小熊背包</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">棺材</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|-132|0|0|90|1|1|1</t>
+    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:U200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -275,7 +1337,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -308,7 +1370,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="38.25" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -333,7 +1395,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -356,20 +1418,20 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>334814</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -389,20 +1451,20 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>135851</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -422,20 +1484,20 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>452702</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>399002</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
@@ -455,20 +1517,20 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>449687</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>339243</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
@@ -488,20 +1550,18 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>449694</v>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1">
+        <v>326976</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
@@ -521,20 +1581,18 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>375152</v>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
+        <v>211667</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
@@ -554,20 +1612,18 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>399002</v>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1">
+        <v>452702</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
@@ -587,20 +1643,18 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>131208</v>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1">
+        <v>449694</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
@@ -620,20 +1674,18 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>454815</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1">
+        <v>449687</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
@@ -653,20 +1705,18 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>454822</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1">
+        <v>449659</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
@@ -686,20 +1736,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>454833</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1">
+        <v>393543</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
@@ -719,20 +1767,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>454834</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1">
+        <v>375152</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -752,20 +1798,20 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>117847</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1">
+        <v>375788</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -783,12 +1829,20 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1">
+        <v>375145</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -806,12 +1860,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1">
+        <v>375134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -829,12 +1891,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1">
+        <v>145912</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -852,12 +1922,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1">
+        <v>42805</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -875,12 +1953,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1">
+        <v>42816</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -898,12 +1984,20 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1">
+        <v>342530</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -921,12 +2015,22 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>117847</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -944,12 +2048,19 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>88757</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -967,12 +2078,19 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>88756</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -990,12 +2108,19 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>88767</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1013,12 +2138,19 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>88770</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1036,12 +2168,19 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>88769</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1059,12 +2198,20 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30">
+        <v>127018</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1082,12 +2229,20 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1">
+        <v>127019</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1105,12 +2260,20 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="1">
+        <v>155677</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1128,12 +2291,20 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="1">
+        <v>155680</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1151,12 +2322,20 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="1">
+        <v>155682</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1174,12 +2353,20 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1">
+        <v>155684</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1197,12 +2384,20 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1">
+        <v>155705</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1220,12 +2415,20 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="1">
+        <v>155706</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1243,12 +2446,20 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="1">
+        <v>155707</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1266,12 +2477,20 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1">
+        <v>157113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1289,12 +2508,20 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="1">
+        <v>157118</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1312,12 +2539,20 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="1">
+        <v>157119</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1335,12 +2570,20 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1">
+        <v>157253</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1358,12 +2601,20 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="1">
+        <v>157254</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1381,12 +2632,20 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="1">
+        <v>160335</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1404,12 +2663,20 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="1">
+        <v>160339</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1427,12 +2694,20 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1">
+        <v>160340</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1450,12 +2725,20 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1">
+        <v>160342</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1473,12 +2756,20 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1">
+        <v>160344</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1496,12 +2787,20 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1">
+        <v>160347</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1519,12 +2818,20 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1">
+        <v>160345</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1542,12 +2849,20 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1">
+        <v>160343</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1565,12 +2880,20 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1">
+        <v>301947</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1588,12 +2911,20 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1">
+        <v>326208</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1611,12 +2942,20 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1">
+        <v>326209</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1634,12 +2973,20 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1">
+        <v>326306</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1657,12 +3004,20 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1">
+        <v>328807</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1680,12 +3035,20 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1">
+        <v>445944</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1703,12 +3066,20 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1">
+        <v>499861</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1726,12 +3097,20 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="1">
+        <v>517323</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -1749,12 +3128,20 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1">
+        <v>510179</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -1772,12 +3159,20 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1">
+        <v>510182</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1795,12 +3190,20 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1">
+        <v>510184</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -1818,12 +3221,20 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1">
+        <v>530877</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -1841,12 +3252,20 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1">
+        <v>530878</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -1864,12 +3283,20 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1">
+        <v>530881</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -1887,12 +3314,22 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>131208</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -1910,12 +3347,22 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1">
+        <v>454815</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -1933,12 +3380,22 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1">
+        <v>454822</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -1956,12 +3413,22 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1">
+        <v>454833</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -1979,12 +3446,22 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1">
+        <v>454834</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2002,7 +3479,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2025,7 +3502,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2048,7 +3525,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2071,7 +3548,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2094,7 +3571,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2117,7 +3594,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2140,7 +3617,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2163,7 +3640,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2186,7 +3663,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2209,7 +3686,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2232,7 +3709,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:21">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2255,7 +3732,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:21">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2278,7 +3755,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:21">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2301,7 +3778,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:21">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2324,7 +3801,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:21">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2347,7 +3824,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:21">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2370,7 +3847,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:21">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2393,7 +3870,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:21">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2416,7 +3893,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:21">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2439,7 +3916,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:21">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2462,7 +3939,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:21">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2485,7 +3962,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:21">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2508,7 +3985,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:21">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2531,7 +4008,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:21">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2554,7 +4031,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:21">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2577,7 +4054,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:21">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2600,7 +4077,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:21">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2623,7 +4100,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:21">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2646,7 +4123,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:21">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2669,7 +4146,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:21">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2692,7 +4169,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:21">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2715,7 +4192,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:21">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2738,7 +4215,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:21">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2761,7 +4238,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:21">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2784,7 +4261,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:21">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2807,7 +4284,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:21">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2830,7 +4307,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:21">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2853,7 +4330,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:21">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2876,7 +4353,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:21">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2899,7 +4376,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:21">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2922,7 +4399,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:21">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2945,7 +4422,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:21">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2968,7 +4445,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:21">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2991,7 +4468,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:21">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3014,7 +4491,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:21">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3037,7 +4514,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:21">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3060,7 +4537,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:21">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3083,7 +4560,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:21">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3106,7 +4583,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:21">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3129,7 +4606,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:21">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3152,7 +4629,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:21">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3175,7 +4652,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:21">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3198,7 +4675,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:21">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3221,7 +4698,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:21">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3244,7 +4721,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:21">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3267,7 +4744,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:21">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3290,7 +4767,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:21">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3313,7 +4790,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:21">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3336,7 +4813,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:21">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3359,7 +4836,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:21">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3382,7 +4859,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:21">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3405,7 +4882,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:21">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3428,7 +4905,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:21">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3451,7 +4928,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:21">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3474,7 +4951,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:21">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3497,7 +4974,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:21">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3520,7 +4997,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:21">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3543,7 +5020,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:21">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3566,7 +5043,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:21">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3589,7 +5066,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:21">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3612,7 +5089,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:21">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3635,7 +5112,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:21">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3658,7 +5135,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:21">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3681,7 +5158,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:21">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3704,7 +5181,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3727,7 +5204,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3750,7 +5227,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3773,7 +5250,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3796,7 +5273,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3819,7 +5296,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3842,7 +5319,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3865,7 +5342,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3888,7 +5365,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3911,7 +5388,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:21">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3934,7 +5411,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3957,7 +5434,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3980,7 +5457,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:21">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4003,7 +5480,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:21">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4026,7 +5503,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:21">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4049,7 +5526,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:21">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4072,7 +5549,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:21">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4095,7 +5572,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:21">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4118,7 +5595,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:21">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4141,7 +5618,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:21">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4164,7 +5641,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:21">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4187,7 +5664,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4210,7 +5687,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4233,7 +5710,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:21">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4256,7 +5733,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:21">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4279,7 +5756,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4302,7 +5779,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:21">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4325,7 +5802,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:21">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4348,7 +5825,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:21">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4371,7 +5848,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:21">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4394,7 +5871,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:21">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4417,7 +5894,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:21">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4440,7 +5917,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:21">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4463,7 +5940,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:21">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4486,7 +5963,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:21">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4509,7 +5986,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:21">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4532,7 +6009,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:21">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4555,7 +6032,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:21">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4578,7 +6055,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:21">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4601,7 +6078,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:21">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4624,7 +6101,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:21">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4647,7 +6124,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:21">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4670,7 +6147,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:21">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4693,7 +6170,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:21">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4716,7 +6193,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:21">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4739,7 +6216,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:21">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4762,7 +6239,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:21">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4785,7 +6262,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:21">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4808,7 +6285,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:21">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4831,7 +6308,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:21">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4854,7 +6331,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:21">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4877,7 +6354,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:21">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4900,7 +6377,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:21">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4923,7 +6400,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:21">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4946,7 +6423,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:21">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4969,7 +6446,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:21">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4992,14 +6469,746 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Back_背部.xlsx
+++ b/rp/Excel/Back_背部.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
   <si>
     <t>Int</t>
   </si>
@@ -1307,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U232"/>
+  <dimension ref="A1:U231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
@@ -3651,11 +3651,19 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2">
+        <v>72</v>
+      </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="C76" s="2">
+        <v>402315</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -3674,11 +3682,19 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>73</v>
+      </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="C77" s="2">
+        <v>402301</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3697,11 +3713,19 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>74</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="C78" s="2">
+        <v>397447</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3720,11 +3744,19 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>75</v>
+      </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="C79" s="2">
+        <v>409377</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3743,11 +3775,19 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <v>76</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="2">
+        <v>409330</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3766,11 +3806,19 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2">
+        <v>77</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="2">
+        <v>424761</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3789,11 +3837,19 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2">
+        <v>78</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="2">
+        <v>348269</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3812,11 +3868,19 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2">
+        <v>79</v>
+      </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="C83" s="2">
+        <v>196412</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3835,11 +3899,19 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2">
+        <v>80</v>
+      </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="C84" s="2">
+        <v>155703</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -7238,29 +7310,6 @@
       <c r="T231" s="2"/>
       <c r="U231" s="2"/>
     </row>
-    <row r="232" spans="1:21">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Back_背部.xlsx
+++ b/rp/Excel/Back_背部.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Int</t>
   </si>
@@ -79,6 +79,12 @@
     <t>0|0|-132|0|0|90|1|1|1</t>
   </si>
   <si>
+    <t>环绕</t>
+  </si>
+  <si>
+    <t>0|0|-18|0|0|0|1.2|1.2|1.2</t>
+  </si>
+  <si>
     <t>30|0|0|0|0|90|1|1|1</t>
   </si>
   <si>
@@ -89,6 +95,12 @@
   </si>
   <si>
     <t>30|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>闪电</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>飞行背包</t>
@@ -115,9 +127,6 @@
   </si>
   <si>
     <t>小熊背包</t>
-  </si>
-  <si>
-    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -770,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1307,10 +1319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U231"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
@@ -2068,11 +2080,14 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="2">
-        <v>88757</v>
+        <v>146784</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2098,11 +2113,11 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="1">
-        <v>88756</v>
+      <c r="C26" s="2">
+        <v>88757</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2129,10 +2144,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>88767</v>
+        <v>88756</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -2159,10 +2174,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>88770</v>
+        <v>88767</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2189,10 +2204,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>88769</v>
+        <v>88770</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2218,12 +2233,11 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" s="1">
-        <v>127018</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>88769</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2250,11 +2264,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2">
-        <v>127019</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
+      <c r="C31" s="1">
+        <v>127018</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2282,10 +2296,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <v>155677</v>
+        <v>127019</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2313,10 +2327,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <v>155680</v>
+        <v>155677</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2344,10 +2358,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <v>155682</v>
+        <v>155680</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2375,10 +2389,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <v>155684</v>
+        <v>155682</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2406,10 +2420,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
-        <v>155705</v>
+        <v>155684</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2437,10 +2451,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <v>155706</v>
+        <v>155705</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -2468,10 +2482,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <v>155707</v>
+        <v>155706</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2499,7 +2513,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>157113</v>
+        <v>155707</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
@@ -2530,10 +2544,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>157118</v>
+        <v>157113</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -2561,10 +2575,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
-        <v>157119</v>
+        <v>157118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -2592,10 +2606,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
-        <v>157253</v>
+        <v>157119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2623,10 +2637,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
-        <v>157254</v>
+        <v>157253</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2654,10 +2668,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
-        <v>160335</v>
+        <v>157254</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2685,10 +2699,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
-        <v>160339</v>
+        <v>160335</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2714,12 +2728,12 @@
       <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>160340</v>
+        <v>160339</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -2747,10 +2761,10 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="2">
-        <v>160342</v>
+        <v>160340</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -2778,10 +2792,10 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="2">
-        <v>160344</v>
+        <v>160342</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2809,10 +2823,10 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="2">
-        <v>160347</v>
+        <v>160344</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2840,10 +2854,10 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="2">
-        <v>160345</v>
+        <v>160347</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2871,10 +2885,10 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="2">
-        <v>160343</v>
+        <v>160345</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -2902,10 +2916,10 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="2">
-        <v>301947</v>
+        <v>160343</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2933,10 +2947,10 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="2">
-        <v>326208</v>
+        <v>301947</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2964,10 +2978,10 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="2">
-        <v>326209</v>
+        <v>326208</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2995,10 +3009,10 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="2">
-        <v>326306</v>
+        <v>326209</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3026,10 +3040,10 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2">
-        <v>328807</v>
+        <v>326306</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3057,10 +3071,10 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="2">
-        <v>445944</v>
+        <v>328807</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3088,10 +3102,10 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="2">
-        <v>499861</v>
+        <v>445944</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3119,10 +3133,10 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="2">
-        <v>517323</v>
+        <v>499861</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3150,10 +3164,10 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="2">
-        <v>510179</v>
+        <v>517323</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3181,10 +3195,10 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="2">
-        <v>510182</v>
+        <v>510179</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -3212,10 +3226,10 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2">
-        <v>510184</v>
+        <v>510182</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -3243,10 +3257,10 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="2">
-        <v>530877</v>
+        <v>510184</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -3274,10 +3288,10 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="2">
-        <v>530878</v>
+        <v>530877</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -3305,10 +3319,10 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="2">
-        <v>530881</v>
+        <v>530878</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -3334,14 +3348,12 @@
       <c r="A66" s="2">
         <v>62</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B66" s="4"/>
       <c r="C66" s="2">
-        <v>131208</v>
+        <v>530881</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -3363,15 +3375,15 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" ht="17.25" spans="1:21">
       <c r="A67" s="2">
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="2">
-        <v>454815</v>
+      <c r="C67" s="6">
+        <v>142950</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>23</v>
@@ -3401,13 +3413,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2">
-        <v>454822</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>23</v>
+        <v>131208</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -3434,10 +3446,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2">
-        <v>454833</v>
+        <v>454815</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>23</v>
@@ -3467,10 +3479,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2">
-        <v>454834</v>
+        <v>454822</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>23</v>
@@ -3495,16 +3507,18 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" ht="17.25" spans="1:21">
+    <row r="71" spans="1:21">
       <c r="A71" s="2">
         <v>67</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="6">
-        <v>132890</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>19</v>
+      <c r="B71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="2">
+        <v>454833</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3526,16 +3540,18 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" ht="17.25" spans="1:21">
+    <row r="72" spans="1:21">
       <c r="A72" s="2">
         <v>68</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="6">
-        <v>132891</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>19</v>
+      <c r="B72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="2">
+        <v>454834</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -3557,16 +3573,16 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" ht="17.25" spans="1:21">
       <c r="A73" s="2">
         <v>69</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2">
-        <v>132893</v>
+      <c r="C73" s="7">
+        <v>132890</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -3588,16 +3604,16 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" ht="17.25" spans="1:21">
       <c r="A74" s="2">
         <v>70</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2">
-        <v>132894</v>
+      <c r="C74" s="7">
+        <v>132891</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -3619,16 +3635,16 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" ht="17.25" spans="1:21">
+    <row r="75" spans="1:21">
       <c r="A75" s="2">
         <v>71</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="6">
-        <v>132892</v>
+      <c r="C75" s="2">
+        <v>132893</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -3656,10 +3672,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2">
-        <v>402315</v>
+        <v>132894</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -3681,16 +3697,16 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" ht="17.25" spans="1:21">
       <c r="A77" s="2">
         <v>73</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <v>402301</v>
+      <c r="C77" s="7">
+        <v>132892</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3718,10 +3734,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2">
-        <v>397447</v>
+        <v>402315</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -3749,10 +3765,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2">
-        <v>409377</v>
+        <v>402301</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -3780,10 +3796,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2">
-        <v>409330</v>
+        <v>397447</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -3811,10 +3827,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2">
-        <v>424761</v>
+        <v>409377</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -3842,10 +3858,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2">
-        <v>348269</v>
+        <v>409330</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -3873,10 +3889,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2">
-        <v>196412</v>
+        <v>424761</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -3904,10 +3920,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2">
-        <v>155703</v>
+        <v>348269</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -3930,11 +3946,19 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2">
+        <v>81</v>
+      </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="C85" s="2">
+        <v>196412</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -3953,11 +3977,19 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2">
+        <v>82</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="C86" s="2">
+        <v>155703</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -7310,6 +7342,52 @@
       <c r="T231" s="2"/>
       <c r="U231" s="2"/>
     </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rp/Excel/Back_背部.xlsx
+++ b/rp/Excel/Back_背部.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Int</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>精灵翅膀</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|180|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-20|0|0|90|1|1|1</t>
   </si>
   <si>
     <t>棺材</t>
@@ -763,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -779,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1319,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
@@ -2047,14 +2050,12 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2">
-        <v>117847</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>211666</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2080,14 +2081,12 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="2">
-        <v>146784</v>
+        <v>178438</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2113,11 +2112,12 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="2">
-        <v>88757</v>
+        <v>378668</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2143,11 +2143,12 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
-        <v>88756</v>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2">
+        <v>342526</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -2173,11 +2174,12 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="1">
-        <v>88767</v>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2">
+        <v>342525</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2203,11 +2205,12 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="1">
-        <v>88770</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2">
+        <v>340180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2233,11 +2236,12 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="1">
-        <v>88769</v>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2">
+        <v>340178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2263,12 +2267,12 @@
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1">
-        <v>127018</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2">
+        <v>145910</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2294,12 +2298,12 @@
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2">
-        <v>127019</v>
+        <v>145909</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2325,12 +2329,12 @@
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2">
-        <v>155677</v>
+        <v>145908</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2356,12 +2360,12 @@
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2">
-        <v>155680</v>
+        <v>145907</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2387,12 +2391,12 @@
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2">
-        <v>155682</v>
+        <v>145906</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2418,12 +2422,12 @@
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2">
-        <v>155684</v>
+        <v>145904</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2449,12 +2453,14 @@
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C37" s="2">
-        <v>155705</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>117847</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -2480,12 +2486,14 @@
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C38" s="2">
-        <v>155706</v>
+        <v>146784</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2511,12 +2519,11 @@
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>155707</v>
+        <v>88757</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -2542,9 +2549,8 @@
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2">
-        <v>157113</v>
+      <c r="C40" s="1">
+        <v>88756</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>20</v>
@@ -2573,9 +2579,8 @@
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>157118</v>
+      <c r="C41" s="1">
+        <v>88767</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>20</v>
@@ -2604,9 +2609,8 @@
       <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>157119</v>
+      <c r="C42" s="1">
+        <v>88770</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>20</v>
@@ -2635,12 +2639,11 @@
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
-        <v>157253</v>
+      <c r="C43" s="1">
+        <v>88769</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2667,10 +2670,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>157254</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="1">
+        <v>127018</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="2">
@@ -2699,10 +2702,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
-        <v>160335</v>
+        <v>127019</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>160339</v>
+        <v>155677</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
@@ -2759,9 +2762,9 @@
       <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>160340</v>
+        <v>155680</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>20</v>
@@ -2790,9 +2793,9 @@
       <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2">
-        <v>160342</v>
+        <v>155682</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>20</v>
@@ -2821,9 +2824,9 @@
       <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>160344</v>
+        <v>155684</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>20</v>
@@ -2852,9 +2855,9 @@
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>160347</v>
+        <v>155705</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>20</v>
@@ -2883,9 +2886,9 @@
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>160345</v>
+        <v>155706</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
@@ -2914,9 +2917,9 @@
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>160343</v>
+        <v>155707</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
@@ -2945,12 +2948,12 @@
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>301947</v>
+        <v>157113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2976,12 +2979,12 @@
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>326208</v>
+        <v>157118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -3007,12 +3010,12 @@
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2">
-        <v>326209</v>
+        <v>157119</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3038,12 +3041,12 @@
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2">
-        <v>326306</v>
+        <v>157253</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3069,12 +3072,12 @@
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2">
-        <v>328807</v>
+        <v>157254</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3100,12 +3103,12 @@
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2">
-        <v>445944</v>
+        <v>160335</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3131,12 +3134,12 @@
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2">
-        <v>499861</v>
+        <v>160339</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3164,10 +3167,10 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="2">
-        <v>517323</v>
+        <v>160340</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3195,10 +3198,10 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="2">
-        <v>510179</v>
+        <v>160342</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -3226,10 +3229,10 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2">
-        <v>510182</v>
+        <v>160344</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -3257,10 +3260,10 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="2">
-        <v>510184</v>
+        <v>160347</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -3288,10 +3291,10 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="2">
-        <v>530877</v>
+        <v>160345</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -3319,10 +3322,10 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="2">
-        <v>530878</v>
+        <v>160343</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -3350,10 +3353,10 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="2">
-        <v>530881</v>
+        <v>301947</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -3375,18 +3378,16 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" ht="17.25" spans="1:21">
+    <row r="67" spans="1:21">
       <c r="A67" s="2">
         <v>63</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="6">
-        <v>142950</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>23</v>
+      <c r="B67" s="4"/>
+      <c r="C67" s="2">
+        <v>326208</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -3412,14 +3413,12 @@
       <c r="A68" s="2">
         <v>64</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="2">
-        <v>131208</v>
+        <v>326209</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -3445,14 +3444,12 @@
       <c r="A69" s="2">
         <v>65</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="2">
-        <v>454815</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>23</v>
+        <v>326306</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -3478,14 +3475,12 @@
       <c r="A70" s="2">
         <v>66</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="2">
-        <v>454822</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>23</v>
+        <v>328807</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -3511,14 +3506,12 @@
       <c r="A71" s="2">
         <v>67</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B71" s="4"/>
       <c r="C71" s="2">
-        <v>454833</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>23</v>
+        <v>445944</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3544,14 +3537,12 @@
       <c r="A72" s="2">
         <v>68</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B72" s="4"/>
       <c r="C72" s="2">
-        <v>454834</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>23</v>
+        <v>499861</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -3573,13 +3564,13 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" ht="17.25" spans="1:21">
+    <row r="73" spans="1:21">
       <c r="A73" s="2">
         <v>69</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="7">
-        <v>132890</v>
+      <c r="B73" s="4"/>
+      <c r="C73" s="2">
+        <v>517323</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>21</v>
@@ -3604,13 +3595,13 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" ht="17.25" spans="1:21">
+    <row r="74" spans="1:21">
       <c r="A74" s="2">
         <v>70</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="7">
-        <v>132891</v>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2">
+        <v>510179</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>21</v>
@@ -3639,9 +3630,9 @@
       <c r="A75" s="2">
         <v>71</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="2">
-        <v>132893</v>
+        <v>510182</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>21</v>
@@ -3670,9 +3661,9 @@
       <c r="A76" s="2">
         <v>72</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="2">
-        <v>132894</v>
+        <v>510184</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>21</v>
@@ -3697,16 +3688,16 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" ht="17.25" spans="1:21">
+    <row r="77" spans="1:21">
       <c r="A77" s="2">
         <v>73</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="7">
-        <v>132892</v>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2">
+        <v>530877</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3732,12 +3723,12 @@
       <c r="A78" s="2">
         <v>74</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="2">
-        <v>402315</v>
+        <v>530878</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -3763,9 +3754,9 @@
       <c r="A79" s="2">
         <v>75</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="2">
-        <v>402301</v>
+        <v>530881</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>21</v>
@@ -3790,16 +3781,18 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" ht="17.25" spans="1:21">
       <c r="A80" s="2">
         <v>76</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2">
-        <v>397447</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>21</v>
+      <c r="B80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="6">
+        <v>142950</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -3825,12 +3818,14 @@
       <c r="A81" s="2">
         <v>77</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C81" s="2">
-        <v>409377</v>
+        <v>131208</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -3856,12 +3851,14 @@
       <c r="A82" s="2">
         <v>78</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C82" s="2">
-        <v>409330</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
+        <v>454815</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -3887,12 +3884,14 @@
       <c r="A83" s="2">
         <v>79</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C83" s="2">
-        <v>424761</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>454822</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -3918,12 +3917,14 @@
       <c r="A84" s="2">
         <v>80</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C84" s="2">
-        <v>348269</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
+        <v>454833</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -3949,12 +3950,14 @@
       <c r="A85" s="2">
         <v>81</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C85" s="2">
-        <v>196412</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>454834</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -3976,16 +3979,16 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" ht="17.25" spans="1:21">
       <c r="A86" s="2">
         <v>82</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2">
-        <v>155703</v>
+      <c r="C86" s="6">
+        <v>132890</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -4007,12 +4010,20 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="2"/>
+    <row r="87" ht="17.25" spans="1:21">
+      <c r="A87" s="2">
+        <v>83</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="C87" s="6">
+        <v>132891</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -4031,11 +4042,19 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>84</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="C88" s="2">
+        <v>132893</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4054,11 +4073,19 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>85</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="C89" s="2">
+        <v>132894</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4076,12 +4103,20 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="2"/>
+    <row r="90" ht="17.25" spans="1:21">
+      <c r="A90" s="2">
+        <v>86</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="C90" s="6">
+        <v>132892</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4100,11 +4135,19 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>87</v>
+      </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="C91" s="2">
+        <v>402315</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4123,11 +4166,19 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <v>88</v>
+      </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="C92" s="2">
+        <v>402301</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -4146,11 +4197,19 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>89</v>
+      </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="C93" s="2">
+        <v>397447</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4169,11 +4228,19 @@
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>90</v>
+      </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="C94" s="2">
+        <v>409377</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4192,11 +4259,19 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>91</v>
+      </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="C95" s="2">
+        <v>409330</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4215,11 +4290,19 @@
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2">
+        <v>92</v>
+      </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="C96" s="2">
+        <v>424761</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4238,11 +4321,19 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>93</v>
+      </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="C97" s="2">
+        <v>348269</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4261,11 +4352,19 @@
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>94</v>
+      </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="C98" s="2">
+        <v>196412</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4284,11 +4383,19 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>95</v>
+      </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="C99" s="2">
+        <v>155703</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -7388,6 +7495,305 @@
       <c r="T233" s="2"/>
       <c r="U233" s="2"/>
     </row>
+    <row r="234" spans="1:21">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+    </row>
+    <row r="235" spans="1:21">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+    </row>
+    <row r="236" spans="1:21">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2"/>
+    </row>
+    <row r="237" spans="1:21">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2"/>
+    </row>
+    <row r="238" spans="1:21">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+    </row>
+    <row r="239" spans="1:21">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+    </row>
+    <row r="240" spans="1:21">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+    </row>
+    <row r="243" spans="1:21">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+    </row>
+    <row r="244" spans="1:21">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2"/>
+    </row>
+    <row r="245" spans="1:21">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2"/>
+    </row>
+    <row r="246" spans="1:21">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
